--- a/Excel/镇魂街/INDEX/INDEX.xlsx
+++ b/Excel/镇魂街/INDEX/INDEX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>card_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>drop_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡牌碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>groupId</t>
   </si>
   <si>
@@ -124,6 +116,10 @@
   </si>
   <si>
     <t>EnName</t>
+  </si>
+  <si>
+    <t>card_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -451,7 +447,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -522,16 +518,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -545,19 +541,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -571,19 +567,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -597,22 +593,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>4</v>

--- a/Excel/镇魂街/INDEX/INDEX.xlsx
+++ b/Excel/镇魂街/INDEX/INDEX.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/镇魂街/INDEX/INDEX.xlsx
+++ b/Excel/镇魂街/INDEX/INDEX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,19 @@
   </si>
   <si>
     <t>card_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve.成就</t>
+  </si>
+  <si>
+    <t>成就条件类型</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>condition_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,6 +630,32 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/镇魂街/INDEX/INDEX.xlsx
+++ b/Excel/镇魂街/INDEX/INDEX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,9 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>groupId</t>
-  </si>
-  <si>
     <t>掉落组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +129,30 @@
   </si>
   <si>
     <t>condition_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapter.章节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -554,7 +575,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -586,13 +607,13 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -609,10 +630,10 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -621,24 +642,24 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -647,12 +668,38 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Excel/镇魂街/INDEX/INDEX.xlsx
+++ b/Excel/镇魂街/INDEX/INDEX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,45 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle.战场配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>skill_effect_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_old.技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,16 +517,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
@@ -703,6 +742,84 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/镇魂街/INDEX/INDEX.xlsx
+++ b/Excel/镇魂街/INDEX/INDEX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,10 +149,6 @@
   </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -520,7 +516,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -733,7 +729,7 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -744,19 +740,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>37</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -770,22 +766,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -796,22 +792,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
       </c>
       <c r="G11">
         <v>4</v>

--- a/Excel/镇魂街/INDEX/INDEX.xlsx
+++ b/Excel/镇魂街/INDEX/INDEX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,32 @@
   <si>
     <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster.怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼怪</t>
+  </si>
+  <si>
+    <t>个人BOSS</t>
   </si>
 </sst>
 </file>
@@ -513,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -816,6 +842,84 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/镇魂街/INDEX/INDEX.xlsx
+++ b/Excel/镇魂街/INDEX/INDEX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill_old.技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,6 +211,44 @@
   </si>
   <si>
     <t>个人BOSS</t>
+  </si>
+  <si>
+    <t>skill.技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill.技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_effect_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_condition_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
 </sst>
 </file>
@@ -539,15 +573,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
@@ -795,10 +829,10 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -807,7 +841,7 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -821,10 +855,10 @@
         <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -833,7 +867,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -844,22 +878,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -870,22 +904,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -896,27 +930,105 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
         <v>47</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
         <v>48</v>
       </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Excel/镇魂街/INDEX/INDEX.xlsx
+++ b/Excel/镇魂街/INDEX/INDEX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,18 +237,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>buff_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-  </si>
-  <si>
-    <t>int</t>
+    <t>arena.竞技场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -576,7 +570,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -930,28 +924,28 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -962,7 +956,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -988,7 +982,7 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1011,19 +1005,19 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <v>4</v>

--- a/Excel/镇魂街/INDEX/INDEX.xlsx
+++ b/Excel/镇魂街/INDEX/INDEX.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705FEB2D-E165-4C43-805D-9CBB3B754DEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -225,14 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能效果类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能效果条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effect_condition_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,13 +235,21 @@
   </si>
   <si>
     <t>机器人卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetailType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCondition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,11 +567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -878,7 +879,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -898,13 +899,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1005,10 +1006,10 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <v>1</v>

--- a/Excel/镇魂街/INDEX/INDEX.xlsx
+++ b/Excel/镇魂街/INDEX/INDEX.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705FEB2D-E165-4C43-805D-9CBB3B754DEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -249,7 +248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,11 +566,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/镇魂街/INDEX/INDEX.xlsx
+++ b/Excel/镇魂街/INDEX/INDEX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,10 @@
   </si>
   <si>
     <t>EffectCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试怪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1026,6 +1030,32 @@
         <v>11</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/镇魂街/INDEX/INDEX.xlsx
+++ b/Excel/镇魂街/INDEX/INDEX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,18 @@
   </si>
   <si>
     <t>测试怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump.跳转表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +586,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -642,7 +654,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -668,19 +680,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -694,39 +706,39 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -735,33 +747,33 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -772,19 +784,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -798,13 +810,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -813,7 +825,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -824,13 +836,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -850,13 +862,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -876,13 +888,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -902,22 +914,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -934,7 +946,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -960,7 +972,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -983,19 +995,19 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -1009,19 +1021,19 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1032,13 +1044,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>1</v>

--- a/Excel/镇魂街/INDEX/INDEX.xlsx
+++ b/Excel/镇魂街/INDEX/INDEX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,128 +136,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>chapter.章节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle.战场配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>skill_effect_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mon_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster.怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼怪</t>
+  </si>
+  <si>
+    <t>个人BOSS</t>
+  </si>
+  <si>
+    <t>skill.技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill.技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_effect_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_condition_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arena.竞技场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetailType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump.跳转表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eqp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eqp.装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_jump_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>national_monster国战怪物表</t>
+  </si>
+  <si>
+    <t>怪物表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>level_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chapter.章节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battle.战场配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战场角色</t>
+    <t>level_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drill.教学关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学关卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>skill_effect_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mon_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster.怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼怪</t>
-  </si>
-  <si>
-    <t>个人BOSS</t>
-  </si>
-  <si>
-    <t>skill.技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill.技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_effect_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_condition_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arena.竞技场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DetailType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jump_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jump.跳转表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽技能道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D3" sqref="D3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -654,19 +721,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -680,13 +747,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -706,39 +773,39 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -747,7 +814,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -758,19 +825,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -784,19 +851,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -810,48 +877,48 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -862,22 +929,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -888,22 +955,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -914,22 +981,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -940,22 +1007,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -966,22 +1033,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -992,10 +1059,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
@@ -1004,10 +1071,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -1018,22 +1085,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1044,27 +1111,235 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C24" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Excel/镇魂街/INDEX/INDEX.xlsx
+++ b/Excel/镇魂街/INDEX/INDEX.xlsx
@@ -1,343 +1,343 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\INDEX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="87">
   <si>
     <t>字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sheet名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列行数</t>
   </si>
   <si>
     <t>列名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列行数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>起始行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>值类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>item_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>item.道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>#note</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备道具</t>
+  </si>
+  <si>
+    <t>卡牌道具</t>
+  </si>
+  <si>
+    <t>插槽技能道具</t>
+  </si>
+  <si>
+    <t>探查剧情道具</t>
+  </si>
+  <si>
+    <t>card_id</t>
+  </si>
+  <si>
+    <t>card.卡牌表</t>
+  </si>
+  <si>
+    <t>卡牌</t>
+  </si>
+  <si>
+    <t>eqp_id</t>
+  </si>
+  <si>
+    <t>eqp.装备</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>drop_id</t>
+  </si>
+  <si>
+    <t>drop.掉落表</t>
+  </si>
+  <si>
+    <t>掉落组</t>
+  </si>
+  <si>
+    <t>attr_id</t>
+  </si>
+  <si>
+    <t>property.属性</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>EnName</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>condition_id</t>
+  </si>
+  <si>
+    <t>achieve.成就</t>
+  </si>
+  <si>
+    <t>成就条件类型</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>level_id</t>
+  </si>
+  <si>
+    <t>chapter.章节</t>
+  </si>
+  <si>
+    <t>关卡表</t>
+  </si>
+  <si>
+    <t>drill.教学关卡</t>
+  </si>
+  <si>
+    <t>教学关卡</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>battle.战场配置</t>
+  </si>
+  <si>
+    <t>战场角色</t>
+  </si>
+  <si>
+    <t>skill_id</t>
+  </si>
+  <si>
+    <t>skill.技能</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>skill_effect_id</t>
+  </si>
+  <si>
+    <t>技能效果</t>
+  </si>
+  <si>
+    <t>skill_effect_type</t>
+  </si>
+  <si>
+    <t>DetailType</t>
+  </si>
+  <si>
+    <t>effect_condition_id</t>
+  </si>
+  <si>
+    <t>EffectCondition</t>
+  </si>
+  <si>
+    <t>mon_id</t>
+  </si>
+  <si>
+    <t>monster.怪物</t>
+  </si>
+  <si>
+    <t>主线怪物</t>
+  </si>
+  <si>
+    <t>芦花古楼怪</t>
+  </si>
+  <si>
+    <t>个人BOSS</t>
+  </si>
+  <si>
+    <t>arena.竞技场</t>
+  </si>
+  <si>
+    <t>机器人卡</t>
+  </si>
+  <si>
+    <t>测试怪</t>
+  </si>
+  <si>
+    <t>日常本</t>
+  </si>
+  <si>
+    <t>传记副本</t>
+  </si>
+  <si>
+    <t>jump_id</t>
+  </si>
+  <si>
+    <t>jump.跳转表</t>
+  </si>
+  <si>
+    <t>跳转类型</t>
+  </si>
+  <si>
+    <t>item_jump_id</t>
+  </si>
+  <si>
+    <t>材料跳转</t>
+  </si>
+  <si>
+    <t>national_monster国战怪物表</t>
+  </si>
+  <si>
+    <t>怪物表</t>
+  </si>
+  <si>
+    <t>element_id</t>
+  </si>
+  <si>
+    <t>MuPBoss.千机黑刹</t>
+  </si>
+  <si>
+    <t>千机黑刹元素配置表</t>
+  </si>
+  <si>
+    <t>ElementName</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lCondition_id</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情成就类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵探系统条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tlReqId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>detective.灵探系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>polymerized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_drop</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw.抽卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop.掉落表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card.卡牌表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>property.属性</t>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnName</t>
-  </si>
-  <si>
-    <t>card_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieve.成就</t>
-  </si>
-  <si>
-    <t>成就条件类型</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>condition_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chapter.章节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battle.战场配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战场角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>skill_effect_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mon_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster.怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼怪</t>
-  </si>
-  <si>
-    <t>个人BOSS</t>
-  </si>
-  <si>
-    <t>skill.技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill.技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_effect_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_condition_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arena.竞技场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DetailType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jump_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jump.跳转表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eqp_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eqp.装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_jump_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>national_monster国战怪物表</t>
-  </si>
-  <si>
-    <t>怪物表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drill.教学关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教学关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插槽技能道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚合掉落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,8 +368,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -430,7 +432,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -465,7 +467,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -640,30 +642,25 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:H5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -678,13 +675,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -707,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -716,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -727,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -742,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -753,13 +750,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -768,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -778,14 +775,14 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>78</v>
+      <c r="C5" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -794,24 +791,24 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -820,24 +817,24 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -846,24 +843,24 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -872,76 +869,76 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -950,24 +947,24 @@
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
+      <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>75</v>
+      <c r="E12" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -976,163 +973,163 @@
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>37</v>
+      <c r="A15" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="F15" t="s">
-        <v>39</v>
-      </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
+      <c r="A16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>36</v>
+      <c r="E16" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1143,65 +1140,65 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1210,50 +1207,50 @@
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G22">
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1262,50 +1259,50 @@
         <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1314,38 +1311,246 @@
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
         <v>68</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
         <v>69</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26" t="s">
-        <v>11</v>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>